--- a/img_user/aumza/sampleotu/excel_table_summary.xlsx
+++ b/img_user/aumza/sampleotu/excel_table_summary.xlsx
@@ -462,31 +462,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.856755</v>
+        <v>0.856438</v>
       </c>
       <c r="D2">
-        <v>0.928258</v>
+        <v>0.928099</v>
       </c>
       <c r="E2">
-        <v>0.138663</v>
+        <v>0.138313</v>
       </c>
       <c r="F2">
-        <v>0.526205</v>
+        <v>0.525834</v>
       </c>
       <c r="G2">
-        <v>0.754155</v>
+        <v>0.7551060000000001</v>
       </c>
       <c r="H2">
-        <v>0.243555</v>
+        <v>0.243013</v>
       </c>
       <c r="I2">
-        <v>0.215629</v>
+        <v>0.215244</v>
       </c>
       <c r="J2">
-        <v>0.27148</v>
+        <v>0.270783</v>
       </c>
       <c r="K2">
-        <v>0.717301</v>
+        <v>0.718146</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +497,31 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.983595</v>
+        <v>0.983921</v>
       </c>
       <c r="D3">
-        <v>0.992559</v>
+        <v>0.992722</v>
       </c>
       <c r="E3">
-        <v>0.97478</v>
+        <v>0.9743889999999999</v>
       </c>
       <c r="F3">
-        <v>0.819916</v>
+        <v>0.820966</v>
       </c>
       <c r="G3">
-        <v>0.95379</v>
+        <v>0.95335</v>
       </c>
       <c r="H3">
-        <v>0.987229</v>
+        <v>0.987028</v>
       </c>
       <c r="I3">
-        <v>0.983704</v>
+        <v>0.9834850000000001</v>
       </c>
       <c r="J3">
-        <v>0.990754</v>
+        <v>0.990572</v>
       </c>
       <c r="K3">
-        <v>0.98495</v>
+        <v>0.9850719999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +532,31 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.993165</v>
+        <v>0.993158</v>
       </c>
       <c r="D4">
-        <v>0.996689</v>
+        <v>0.996691</v>
       </c>
       <c r="E4">
-        <v>0.995159</v>
+        <v>0.995071</v>
       </c>
       <c r="F4">
-        <v>0.8249919999999999</v>
+        <v>0.800899</v>
       </c>
       <c r="G4">
-        <v>0.972577</v>
+        <v>0.972042</v>
       </c>
       <c r="H4">
-        <v>0.997574</v>
+        <v>0.997529</v>
       </c>
       <c r="I4">
-        <v>0.9957819999999999</v>
+        <v>0.995743</v>
       </c>
       <c r="J4">
-        <v>0.9993649999999999</v>
+        <v>0.999316</v>
       </c>
       <c r="K4">
-        <v>0.994857</v>
+        <v>0.994866</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +567,31 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.920404</v>
+        <v>0.922207</v>
       </c>
       <c r="D5">
-        <v>0.958927</v>
+        <v>0.959807</v>
       </c>
       <c r="E5">
-        <v>0.727137</v>
+        <v>0.72637</v>
       </c>
       <c r="F5">
-        <v>0.688979</v>
+        <v>0.693198</v>
       </c>
       <c r="G5">
-        <v>0.86813</v>
+        <v>0.868931</v>
       </c>
       <c r="H5">
-        <v>0.842014</v>
+        <v>0.8415</v>
       </c>
       <c r="I5">
-        <v>0.819103</v>
+        <v>0.818562</v>
       </c>
       <c r="J5">
-        <v>0.864926</v>
+        <v>0.864437</v>
       </c>
       <c r="K5">
-        <v>0.883454</v>
+        <v>0.884779</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +602,31 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.911788</v>
+        <v>0.911348</v>
       </c>
       <c r="D6">
-        <v>0.9565900000000001</v>
+        <v>0.956471</v>
       </c>
       <c r="E6">
-        <v>0.713757</v>
+        <v>0.715736</v>
       </c>
       <c r="F6">
-        <v>0.664637</v>
+        <v>0.663884</v>
       </c>
       <c r="G6">
-        <v>0.859352</v>
+        <v>0.858769</v>
       </c>
       <c r="H6">
-        <v>0.832974</v>
+        <v>0.834319</v>
       </c>
       <c r="I6">
-        <v>0.809532</v>
+        <v>0.811002</v>
       </c>
       <c r="J6">
-        <v>0.856416</v>
+        <v>0.857637</v>
       </c>
       <c r="K6">
-        <v>0.8706429999999999</v>
+        <v>0.871078</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +637,31 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.9890640000000001</v>
+        <v>0.989052</v>
       </c>
       <c r="D7">
-        <v>0.995004</v>
+        <v>0.99502</v>
       </c>
       <c r="E7">
-        <v>0.995304</v>
+        <v>0.995321</v>
       </c>
       <c r="F7">
-        <v>0.922238</v>
+        <v>0.919833</v>
       </c>
       <c r="G7">
-        <v>0.985048</v>
+        <v>0.984888</v>
       </c>
       <c r="H7">
-        <v>0.997646</v>
+        <v>0.997655</v>
       </c>
       <c r="I7">
-        <v>0.996549</v>
+        <v>0.99656</v>
       </c>
       <c r="J7">
-        <v>0.998744</v>
+        <v>0.99875</v>
       </c>
       <c r="K7">
-        <v>0.992421</v>
+        <v>0.992442</v>
       </c>
     </row>
   </sheetData>

--- a/img_user/aumza/sampleotu/excel_table_summary.xlsx
+++ b/img_user/aumza/sampleotu/excel_table_summary.xlsx
@@ -462,31 +462,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.856438</v>
+        <v>0.8564850000000001</v>
       </c>
       <c r="D2">
-        <v>0.928099</v>
+        <v>0.927928</v>
       </c>
       <c r="E2">
-        <v>0.138313</v>
+        <v>0.135833</v>
       </c>
       <c r="F2">
-        <v>0.525834</v>
+        <v>0.523305</v>
       </c>
       <c r="G2">
-        <v>0.7551060000000001</v>
+        <v>0.7541949999999999</v>
       </c>
       <c r="H2">
-        <v>0.243013</v>
+        <v>0.239178</v>
       </c>
       <c r="I2">
-        <v>0.215244</v>
+        <v>0.211778</v>
       </c>
       <c r="J2">
-        <v>0.270783</v>
+        <v>0.266579</v>
       </c>
       <c r="K2">
-        <v>0.718146</v>
+        <v>0.717376</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +497,31 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.983921</v>
+        <v>0.983777</v>
       </c>
       <c r="D3">
-        <v>0.992722</v>
+        <v>0.992641</v>
       </c>
       <c r="E3">
-        <v>0.9743889999999999</v>
+        <v>0.974962</v>
       </c>
       <c r="F3">
-        <v>0.820966</v>
+        <v>0.814841</v>
       </c>
       <c r="G3">
-        <v>0.95335</v>
+        <v>0.953694</v>
       </c>
       <c r="H3">
-        <v>0.987028</v>
+        <v>0.987322</v>
       </c>
       <c r="I3">
-        <v>0.9834850000000001</v>
+        <v>0.983832</v>
       </c>
       <c r="J3">
-        <v>0.990572</v>
+        <v>0.9908130000000001</v>
       </c>
       <c r="K3">
-        <v>0.9850719999999999</v>
+        <v>0.98499</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +532,31 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.993158</v>
+        <v>0.993169</v>
       </c>
       <c r="D4">
-        <v>0.996691</v>
+        <v>0.996698</v>
       </c>
       <c r="E4">
-        <v>0.995071</v>
+        <v>0.99512</v>
       </c>
       <c r="F4">
-        <v>0.800899</v>
+        <v>0.786883</v>
       </c>
       <c r="G4">
-        <v>0.972042</v>
+        <v>0.971992</v>
       </c>
       <c r="H4">
-        <v>0.997529</v>
+        <v>0.9975540000000001</v>
       </c>
       <c r="I4">
-        <v>0.995743</v>
+        <v>0.995784</v>
       </c>
       <c r="J4">
-        <v>0.999316</v>
+        <v>0.999324</v>
       </c>
       <c r="K4">
-        <v>0.994866</v>
+        <v>0.994876</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +567,31 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.922207</v>
+        <v>0.920865</v>
       </c>
       <c r="D5">
-        <v>0.959807</v>
+        <v>0.959172</v>
       </c>
       <c r="E5">
-        <v>0.72637</v>
+        <v>0.729334</v>
       </c>
       <c r="F5">
-        <v>0.693198</v>
+        <v>0.6879110000000001</v>
       </c>
       <c r="G5">
-        <v>0.868931</v>
+        <v>0.86846</v>
       </c>
       <c r="H5">
-        <v>0.8415</v>
+        <v>0.843485</v>
       </c>
       <c r="I5">
-        <v>0.818562</v>
+        <v>0.820626</v>
       </c>
       <c r="J5">
-        <v>0.864437</v>
+        <v>0.866345</v>
       </c>
       <c r="K5">
-        <v>0.884779</v>
+        <v>0.8841329999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +602,31 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.911348</v>
+        <v>0.910462</v>
       </c>
       <c r="D6">
-        <v>0.956471</v>
+        <v>0.955803</v>
       </c>
       <c r="E6">
-        <v>0.715736</v>
+        <v>0.717996</v>
       </c>
       <c r="F6">
-        <v>0.663884</v>
+        <v>0.650748</v>
       </c>
       <c r="G6">
-        <v>0.858769</v>
+        <v>0.8572</v>
       </c>
       <c r="H6">
-        <v>0.834319</v>
+        <v>0.835853</v>
       </c>
       <c r="I6">
-        <v>0.811002</v>
+        <v>0.812621</v>
       </c>
       <c r="J6">
-        <v>0.857637</v>
+        <v>0.859085</v>
       </c>
       <c r="K6">
-        <v>0.871078</v>
+        <v>0.869769</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +637,31 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.989052</v>
+        <v>0.9889</v>
       </c>
       <c r="D7">
-        <v>0.99502</v>
+        <v>0.994929</v>
       </c>
       <c r="E7">
-        <v>0.995321</v>
+        <v>0.995303</v>
       </c>
       <c r="F7">
-        <v>0.919833</v>
+        <v>0.926441</v>
       </c>
       <c r="G7">
-        <v>0.984888</v>
+        <v>0.984448</v>
       </c>
       <c r="H7">
-        <v>0.997655</v>
+        <v>0.997646</v>
       </c>
       <c r="I7">
-        <v>0.99656</v>
+        <v>0.9965540000000001</v>
       </c>
       <c r="J7">
-        <v>0.99875</v>
+        <v>0.998738</v>
       </c>
       <c r="K7">
-        <v>0.992442</v>
+        <v>0.992346</v>
       </c>
     </row>
   </sheetData>
